--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H2">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I2">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J2">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N2">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q2">
-        <v>158.6780430448441</v>
+        <v>210.8118937964087</v>
       </c>
       <c r="R2">
-        <v>158.6780430448441</v>
+        <v>1897.307044167678</v>
       </c>
       <c r="S2">
-        <v>0.0259261648271065</v>
+        <v>0.02560053555204063</v>
       </c>
       <c r="T2">
-        <v>0.0259261648271065</v>
+        <v>0.02560053555204064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H3">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I3">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J3">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q3">
-        <v>47.74328488740428</v>
+        <v>54.3708059166971</v>
       </c>
       <c r="R3">
-        <v>47.74328488740428</v>
+        <v>489.337253250274</v>
       </c>
       <c r="S3">
-        <v>0.007800702917848128</v>
+        <v>0.006602671817026375</v>
       </c>
       <c r="T3">
-        <v>0.007800702917848128</v>
+        <v>0.00660267181702638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H4">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I4">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J4">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N4">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q4">
-        <v>8.159054443212014</v>
+        <v>9.989255977027558</v>
       </c>
       <c r="R4">
-        <v>8.159054443212014</v>
+        <v>89.90330379324801</v>
       </c>
       <c r="S4">
-        <v>0.001333095532746574</v>
+        <v>0.001213073409535894</v>
       </c>
       <c r="T4">
-        <v>0.001333095532746574</v>
+        <v>0.001213073409535895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H5">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I5">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J5">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N5">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q5">
-        <v>8.224469171710794</v>
+        <v>9.341413879586556</v>
       </c>
       <c r="R5">
-        <v>8.224469171710794</v>
+        <v>84.072724916279</v>
       </c>
       <c r="S5">
-        <v>0.001343783546038373</v>
+        <v>0.001134400881392563</v>
       </c>
       <c r="T5">
-        <v>0.001343783546038373</v>
+        <v>0.001134400881392564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H6">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I6">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J6">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N6">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q6">
-        <v>2.592551533988922</v>
+        <v>2.927624284460334</v>
       </c>
       <c r="R6">
-        <v>2.592551533988922</v>
+        <v>26.348618560143</v>
       </c>
       <c r="S6">
-        <v>0.0004235930636853704</v>
+        <v>0.0003555242933765679</v>
       </c>
       <c r="T6">
-        <v>0.0004235930636853704</v>
+        <v>0.000355524293376568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H7">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I7">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J7">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N7">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q7">
-        <v>8.695395359123733</v>
+        <v>10.46087279752778</v>
       </c>
       <c r="R7">
-        <v>8.695395359123733</v>
+        <v>94.14785517775</v>
       </c>
       <c r="S7">
-        <v>0.001420727461667696</v>
+        <v>0.001270345525272478</v>
       </c>
       <c r="T7">
-        <v>0.001420727461667696</v>
+        <v>0.001270345525272478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H8">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J8">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N8">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q8">
-        <v>1986.360738668999</v>
+        <v>2345.814883684558</v>
       </c>
       <c r="R8">
-        <v>1986.360738668999</v>
+        <v>21112.33395316102</v>
       </c>
       <c r="S8">
-        <v>0.3245484688910071</v>
+        <v>0.2848706315701037</v>
       </c>
       <c r="T8">
-        <v>0.3245484688910071</v>
+        <v>0.2848706315701038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H9">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J9">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q9">
-        <v>597.659164529949</v>
+        <v>605.0125704979805</v>
       </c>
       <c r="R9">
-        <v>597.659164529949</v>
+        <v>5445.113134481825</v>
       </c>
       <c r="S9">
-        <v>0.09765062457730943</v>
+        <v>0.07347140401586248</v>
       </c>
       <c r="T9">
-        <v>0.09765062457730943</v>
+        <v>0.07347140401586251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H10">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J10">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N10">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q10">
-        <v>102.1365344547321</v>
+        <v>111.1557081806613</v>
       </c>
       <c r="R10">
-        <v>102.1365344547321</v>
+        <v>1000.401373625952</v>
       </c>
       <c r="S10">
-        <v>0.01668793348046568</v>
+        <v>0.0134985062172984</v>
       </c>
       <c r="T10">
-        <v>0.01668793348046568</v>
+        <v>0.01349850621729841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H11">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J11">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N11">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q11">
-        <v>102.9554079795584</v>
+        <v>103.9468282304523</v>
       </c>
       <c r="R11">
-        <v>102.9554079795584</v>
+        <v>935.5214540740709</v>
       </c>
       <c r="S11">
-        <v>0.01682172798391314</v>
+        <v>0.01262307559461281</v>
       </c>
       <c r="T11">
-        <v>0.01682172798391314</v>
+        <v>0.01262307559461282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H12">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J12">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N12">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q12">
-        <v>32.4540338491338</v>
+        <v>32.577216098423</v>
       </c>
       <c r="R12">
-        <v>32.4540338491338</v>
+        <v>293.194944885807</v>
       </c>
       <c r="S12">
-        <v>0.005302615375961912</v>
+        <v>0.003956105909847843</v>
       </c>
       <c r="T12">
-        <v>0.005302615375961912</v>
+        <v>0.003956105909847844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H13">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J13">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N13">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q13">
-        <v>108.8505480477012</v>
+        <v>116.4036367344167</v>
       </c>
       <c r="R13">
-        <v>108.8505480477012</v>
+        <v>1047.63273060975</v>
       </c>
       <c r="S13">
-        <v>0.01778492598001115</v>
+        <v>0.0141358031889993</v>
       </c>
       <c r="T13">
-        <v>0.01778492598001115</v>
+        <v>0.01413580318899931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J14">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N14">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q14">
-        <v>2003.616406444532</v>
+        <v>5.913344397436666</v>
       </c>
       <c r="R14">
-        <v>2003.616406444532</v>
+        <v>53.22009957692999</v>
       </c>
       <c r="S14">
-        <v>0.3273678462816385</v>
+        <v>0.0007181036171717963</v>
       </c>
       <c r="T14">
-        <v>0.3273678462816385</v>
+        <v>0.0007181036171717964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J15">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q15">
-        <v>602.8510754378548</v>
+        <v>1.525119360021111</v>
       </c>
       <c r="R15">
-        <v>602.8510754378548</v>
+        <v>13.72607424019</v>
       </c>
       <c r="S15">
-        <v>0.09849892302732231</v>
+        <v>0.0001852071612004609</v>
       </c>
       <c r="T15">
-        <v>0.09849892302732231</v>
+        <v>0.0001852071612004609</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J16">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N16">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q16">
-        <v>103.0238023472078</v>
+        <v>0.2802019838755556</v>
       </c>
       <c r="R16">
-        <v>103.0238023472078</v>
+        <v>2.52181785488</v>
       </c>
       <c r="S16">
-        <v>0.01683290283592729</v>
+        <v>3.402711640589928E-05</v>
       </c>
       <c r="T16">
-        <v>0.01683290283592729</v>
+        <v>3.402711640589929E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H17">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I17">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J17">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N17">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q17">
-        <v>103.8497894890219</v>
+        <v>0.2620297955405556</v>
       </c>
       <c r="R17">
-        <v>103.8497894890219</v>
+        <v>2.358268159865</v>
       </c>
       <c r="S17">
-        <v>0.01696785962246702</v>
+        <v>3.182032557853813E-05</v>
       </c>
       <c r="T17">
-        <v>0.01696785962246702</v>
+        <v>3.182032557853815E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H18">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I18">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J18">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N18">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q18">
-        <v>32.73596452525651</v>
+        <v>0.08212084407833334</v>
       </c>
       <c r="R18">
-        <v>32.73596452525651</v>
+        <v>0.739087596705</v>
       </c>
       <c r="S18">
-        <v>0.005348679601602187</v>
+        <v>9.972575790345528E-06</v>
       </c>
       <c r="T18">
-        <v>0.005348679601602187</v>
+        <v>9.97257579034553E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03423166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.102695</v>
+      </c>
+      <c r="I19">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="J19">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N19">
+        <v>25.71575</v>
+      </c>
+      <c r="O19">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P19">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q19">
+        <v>0.2934309940277778</v>
+      </c>
+      <c r="R19">
+        <v>2.64087894625</v>
+      </c>
+      <c r="S19">
+        <v>3.56336184804328E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.563361848043281E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H20">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I20">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J20">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>172.744858</v>
+      </c>
+      <c r="N20">
+        <v>518.234574</v>
+      </c>
+      <c r="O20">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P20">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q20">
+        <v>3264.767489817358</v>
+      </c>
+      <c r="R20">
+        <v>29382.90740835622</v>
+      </c>
+      <c r="S20">
+        <v>0.3964662272468022</v>
+      </c>
+      <c r="T20">
+        <v>0.3964662272468024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H21">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I21">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J21">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N21">
+        <v>133.658642</v>
+      </c>
+      <c r="O21">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P21">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q21">
+        <v>842.0209901602142</v>
+      </c>
+      <c r="R21">
+        <v>7578.188911441928</v>
+      </c>
+      <c r="S21">
+        <v>0.1022531884039658</v>
+      </c>
+      <c r="T21">
+        <v>0.1022531884039659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H22">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I22">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J22">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N22">
+        <v>24.556384</v>
+      </c>
+      <c r="O22">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P22">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q22">
+        <v>154.6999914186951</v>
+      </c>
+      <c r="R22">
+        <v>1392.299922768256</v>
+      </c>
+      <c r="S22">
+        <v>0.01878642878679055</v>
+      </c>
+      <c r="T22">
+        <v>0.01878642878679056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>13.6631331159478</v>
-      </c>
-      <c r="H19">
-        <v>13.6631331159478</v>
-      </c>
-      <c r="I19">
-        <v>0.4829556363622389</v>
-      </c>
-      <c r="J19">
-        <v>0.4829556363622389</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="N19">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="O19">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="P19">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="Q19">
-        <v>109.7961410901585</v>
-      </c>
-      <c r="R19">
-        <v>109.7961410901585</v>
-      </c>
-      <c r="S19">
-        <v>0.0179394249932816</v>
-      </c>
-      <c r="T19">
-        <v>0.0179394249932816</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H23">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I23">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J23">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N23">
+        <v>22.963807</v>
+      </c>
+      <c r="O23">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P23">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q23">
+        <v>144.6670953606431</v>
+      </c>
+      <c r="R23">
+        <v>1302.003858245788</v>
+      </c>
+      <c r="S23">
+        <v>0.01756805582121139</v>
+      </c>
+      <c r="T23">
+        <v>0.0175680558212114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H24">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I24">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J24">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.398973</v>
+      </c>
+      <c r="N24">
+        <v>7.196919</v>
+      </c>
+      <c r="O24">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P24">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q24">
+        <v>45.33905755591068</v>
+      </c>
+      <c r="R24">
+        <v>408.0515180031961</v>
+      </c>
+      <c r="S24">
+        <v>0.005505876039314252</v>
+      </c>
+      <c r="T24">
+        <v>0.005505876039314254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H25">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I25">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J25">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N25">
+        <v>25.71575</v>
+      </c>
+      <c r="O25">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P25">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q25">
+        <v>162.0037504025556</v>
+      </c>
+      <c r="R25">
+        <v>1458.033753623</v>
+      </c>
+      <c r="S25">
+        <v>0.01967338131191909</v>
+      </c>
+      <c r="T25">
+        <v>0.01967338131191911</v>
       </c>
     </row>
   </sheetData>
